--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inha-Acvr2a.xlsx
@@ -543,10 +543,10 @@
         <v>0.803384</v>
       </c>
       <c r="I2">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J2">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>4.587388874547556</v>
+        <v>4.361959324147556</v>
       </c>
       <c r="R2">
-        <v>41.286499870928</v>
+        <v>39.257633917328</v>
       </c>
       <c r="S2">
-        <v>0.1165110893023376</v>
+        <v>0.1511766797400306</v>
       </c>
       <c r="T2">
-        <v>0.1165110893023376</v>
+        <v>0.1511766797400306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.803384</v>
       </c>
       <c r="I3">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J3">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>7.394053547164446</v>
+        <v>7.394053547164444</v>
       </c>
       <c r="R3">
-        <v>66.54648192448001</v>
+        <v>66.54648192447999</v>
       </c>
       <c r="S3">
-        <v>0.1877951175928833</v>
+        <v>0.2562629272795353</v>
       </c>
       <c r="T3">
-        <v>0.1877951175928833</v>
+        <v>0.2562629272795354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.803384</v>
       </c>
       <c r="I4">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J4">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>2.336029203478222</v>
+        <v>7.033981747933333</v>
       </c>
       <c r="R4">
-        <v>21.024262831304</v>
+        <v>63.30583573139999</v>
       </c>
       <c r="S4">
-        <v>0.05933076845728794</v>
+        <v>0.243783567654508</v>
       </c>
       <c r="T4">
-        <v>0.05933076845728793</v>
+        <v>0.2437835676545081</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.803384</v>
       </c>
       <c r="I5">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="J5">
-        <v>0.3937234314704692</v>
+        <v>0.6944570264822121</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>1.184593457125333</v>
+        <v>1.247443080094222</v>
       </c>
       <c r="R5">
-        <v>10.661341114128</v>
+        <v>11.226987720848</v>
       </c>
       <c r="S5">
-        <v>0.03008645611796035</v>
+        <v>0.04323385180813807</v>
       </c>
       <c r="T5">
-        <v>0.03008645611796034</v>
+        <v>0.04323385180813808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H6">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I6">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J6">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>7.063908731527555</v>
+        <v>1.919148300672889</v>
       </c>
       <c r="R6">
-        <v>63.575178583748</v>
+        <v>17.272334706056</v>
       </c>
       <c r="S6">
-        <v>0.1794100573441667</v>
+        <v>0.06651379494033877</v>
       </c>
       <c r="T6">
-        <v>0.1794100573441667</v>
+        <v>0.06651379494033877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H7">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I7">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J7">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
-        <v>11.38576232396444</v>
+        <v>3.253190652551111</v>
       </c>
       <c r="R7">
-        <v>102.47186091568</v>
+        <v>29.27871587296</v>
       </c>
       <c r="S7">
-        <v>0.2891770475929946</v>
+        <v>0.1127490021952675</v>
       </c>
       <c r="T7">
-        <v>0.2891770475929946</v>
+        <v>0.1127490021952675</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H8">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I8">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J8">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>3.597143721368222</v>
+        <v>3.094768455033333</v>
       </c>
       <c r="R8">
-        <v>32.374293492314</v>
+        <v>27.8529160953</v>
       </c>
       <c r="S8">
-        <v>0.09136071626258446</v>
+        <v>0.1072584095422658</v>
       </c>
       <c r="T8">
-        <v>0.09136071626258445</v>
+        <v>0.1072584095422658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4123646666666667</v>
+        <v>0.1178226666666667</v>
       </c>
       <c r="H9">
-        <v>1.237094</v>
+        <v>0.353468</v>
       </c>
       <c r="I9">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="J9">
-        <v>0.6062765685295308</v>
+        <v>0.3055429735177879</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>1.824100876105333</v>
+        <v>0.5488424098995556</v>
       </c>
       <c r="R9">
-        <v>16.416907884948</v>
+        <v>4.939581689096</v>
       </c>
       <c r="S9">
-        <v>0.04632874732978506</v>
+        <v>0.01902176683991584</v>
       </c>
       <c r="T9">
-        <v>0.04632874732978504</v>
+        <v>0.01902176683991584</v>
       </c>
     </row>
   </sheetData>
